--- a/Preparacion De La Prueba/Lote De Prueba/Documentacion/VectorMath/VectorMath - Planilla de Métricas V2.1.xlsx
+++ b/Preparacion De La Prueba/Lote De Prueba/Documentacion/VectorMath/VectorMath - Planilla de Métricas V2.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgIII\BranchGus\Documentacion\VectorMath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgIII\Reentrega\Preparacion De La Prueba\Lote De Prueba\Documentacion\VectorMath\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1002,46 +1002,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1063,18 +1049,32 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1379,7 +1379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1414,7 +1414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1601,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1621,23 +1621,23 @@
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="109" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1683,12 +1683,12 @@
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1818,12 +1818,12 @@
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="85"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1861,15 +1861,15 @@
       <c r="E8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
       <c r="O8" s="9"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="16"/>
@@ -1899,15 +1899,15 @@
         <f>IFERROR(IF(OR(ISBLANK(C9),ISBLANK(D9)),"Completar",IF(D9&gt;=C9,D9-C9,"Error")),"Error")</f>
         <v>2.3611111111111027E-2</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
       <c r="O9" s="18"/>
       <c r="P9" s="24"/>
       <c r="Q9" s="25"/>
@@ -1953,12 +1953,12 @@
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1996,15 +1996,15 @@
       <c r="E12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
       <c r="O12" s="9"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="16"/>
@@ -2034,15 +2034,15 @@
         <f>IFERROR(IF(OR(ISBLANK(C13),ISBLANK(D13)),"Completar",IF(D13&gt;=C13,D13-C13,"Error")),"Error")</f>
         <v>2.1527777777777923E-2</v>
       </c>
-      <c r="F13" s="107"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
       <c r="O13" s="18"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="25"/>
@@ -2088,21 +2088,21 @@
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="85"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="81"/>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -2119,31 +2119,31 @@
     </row>
     <row r="16" spans="1:27" ht="16.5" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="92" t="s">
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="93"/>
-      <c r="H16" s="104" t="s">
+      <c r="G16" s="85"/>
+      <c r="H16" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="92" t="s">
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="93"/>
-      <c r="M16" s="100" t="s">
+      <c r="L16" s="85"/>
+      <c r="M16" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="102" t="s">
+      <c r="N16" s="96" t="s">
         <v>5</v>
       </c>
       <c r="O16" s="9"/>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="30" t="s">
         <v>15</v>
       </c>
@@ -2187,8 +2187,8 @@
       <c r="L17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="101"/>
-      <c r="N17" s="103"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="97"/>
       <c r="O17" s="9"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="16"/>
@@ -2208,11 +2208,11 @@
       <c r="B18" s="34">
         <v>1</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
       <c r="F18" s="51">
         <v>22</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="48">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="N18" s="43">
         <f t="shared" ref="N18" si="1">IFERROR(IF(OR(J18="",ISBLANK(L18)),"",J18+L18),"Error")</f>
@@ -2261,11 +2261,11 @@
       <c r="B19" s="34">
         <v>2</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
       <c r="F19" s="35">
         <v>12</v>
       </c>
@@ -2314,11 +2314,11 @@
       <c r="B20" s="34">
         <v>3</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
       <c r="F20" s="35">
         <v>12</v>
       </c>
@@ -2367,11 +2367,11 @@
       <c r="B21" s="34">
         <v>4</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="35">
         <v>10</v>
       </c>
@@ -2420,11 +2420,11 @@
       <c r="B22" s="34">
         <v>5</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="51">
         <v>10</v>
       </c>
@@ -2473,11 +2473,11 @@
       <c r="B23" s="34">
         <v>6</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="51">
         <v>14</v>
       </c>
@@ -2526,11 +2526,11 @@
       <c r="B24" s="34">
         <v>7</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="51">
         <v>15</v>
       </c>
@@ -2579,11 +2579,11 @@
       <c r="B25" s="34">
         <v>8</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
       <c r="F25" s="51">
         <v>8</v>
       </c>
@@ -2632,11 +2632,11 @@
       <c r="B26" s="34">
         <v>9</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="51">
         <v>14</v>
       </c>
@@ -2685,11 +2685,11 @@
       <c r="B27" s="34">
         <v>10</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
       <c r="F27" s="51">
         <v>5</v>
       </c>
@@ -2738,11 +2738,11 @@
       <c r="B28" s="34">
         <v>11</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
       <c r="F28" s="51">
         <v>6</v>
       </c>
@@ -2791,11 +2791,11 @@
       <c r="B29" s="34">
         <v>12</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
       <c r="F29" s="51">
         <v>6</v>
       </c>
@@ -2841,12 +2841,12 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="18"/>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="53">
         <f>IF(SUM(F18:F29)=0,"Completar",SUM(F18:F29))</f>
         <v>134</v>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="M30" s="59">
         <f>IF(SUM(M19:M27)=0,"Completar",SUM(M18:M29))</f>
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="N30" s="21">
         <f>IF(OR(COUNTIF(N18:N29,"Error")&gt;0,COUNTIF(N18:N29,"Completar")&gt;0),"Error",IF(SUM(N18:N29)=0,"Completar",SUM(N18:N29)))</f>
@@ -2926,12 +2926,12 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="18"/>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="85"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -3061,21 +3061,21 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1">
       <c r="A36" s="9"/>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="85"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="81"/>
       <c r="O36" s="9"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="61"/>
@@ -3092,16 +3092,16 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="23"/>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="90">
+      <c r="C37" s="87"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="106">
         <f>M30</f>
-        <v>139</v>
+        <v>168</v>
       </c>
-      <c r="F37" s="78"/>
+      <c r="F37" s="100"/>
       <c r="G37" s="64"/>
       <c r="H37" s="65"/>
       <c r="I37" s="65"/>
@@ -3126,16 +3126,16 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="5"/>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="91">
+      <c r="C38" s="87"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="107">
         <f>IF(M30="Completar","Completar",IFERROR(M30/(N30*24),"Error"))</f>
-        <v>81.764705882353212</v>
+        <v>98.823529411765037</v>
       </c>
-      <c r="F38" s="78"/>
+      <c r="F38" s="100"/>
       <c r="G38" s="67"/>
       <c r="H38" s="68"/>
       <c r="I38" s="68"/>
@@ -3160,16 +3160,16 @@
     </row>
     <row r="39" spans="1:27" ht="30" customHeight="1">
       <c r="A39" s="9"/>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="90">
+      <c r="C39" s="87"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="106">
         <f>IF(K30=0,0,IFERROR(ROUNDUP(K30/(M30/100),0),"Error"))</f>
         <v>3</v>
       </c>
-      <c r="F39" s="78"/>
+      <c r="F39" s="100"/>
       <c r="G39" s="67"/>
       <c r="H39" s="68"/>
       <c r="I39" s="68"/>
@@ -3194,16 +3194,16 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1">
       <c r="A40" s="18"/>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="77"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="89">
+      <c r="C40" s="87"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="105">
         <f>IF(K30=0,0,IFERROR(K30/M30,"Error"))</f>
-        <v>2.8776978417266189E-2</v>
+        <v>2.3809523809523808E-2</v>
       </c>
-      <c r="F40" s="78"/>
+      <c r="F40" s="100"/>
       <c r="G40" s="67"/>
       <c r="H40" s="68"/>
       <c r="I40" s="68"/>
@@ -3228,11 +3228,11 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="18"/>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="78"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="100"/>
       <c r="E41" s="70">
         <f>E5</f>
         <v>7.6388888888888618E-3</v>
@@ -3263,13 +3263,13 @@
       <c r="Z41" s="25"/>
       <c r="AA41" s="26"/>
     </row>
-    <row r="42" spans="1:27" ht="30">
+    <row r="42" spans="1:27">
       <c r="A42" s="23"/>
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="78"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="100"/>
       <c r="E42" s="70">
         <f>E9</f>
         <v>2.3611111111111027E-2</v>
@@ -3300,13 +3300,13 @@
       <c r="Z42" s="27"/>
       <c r="AA42" s="29"/>
     </row>
-    <row r="43" spans="1:27" ht="30">
+    <row r="43" spans="1:27">
       <c r="A43" s="23"/>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="77"/>
-      <c r="D43" s="78"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="100"/>
       <c r="E43" s="70">
         <f>E13</f>
         <v>2.1527777777777923E-2</v>
@@ -3339,11 +3339,11 @@
     </row>
     <row r="44" spans="1:27" ht="15" customHeight="1">
       <c r="A44" s="23"/>
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="100"/>
       <c r="E44" s="70">
         <f>E34</f>
         <v>1.6666666666666607E-2</v>
@@ -3376,11 +3376,11 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="23"/>
-      <c r="B45" s="76" t="s">
+      <c r="B45" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="77"/>
-      <c r="D45" s="78"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="100"/>
       <c r="E45" s="70">
         <f>L30</f>
         <v>5.5555555555555558E-3</v>
@@ -3413,11 +3413,11 @@
     </row>
     <row r="46" spans="1:27" ht="15" customHeight="1">
       <c r="A46" s="23"/>
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="77"/>
-      <c r="D46" s="78"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="100"/>
       <c r="E46" s="70">
         <f>J30</f>
         <v>6.5277777777777546E-2</v>
@@ -3450,16 +3450,16 @@
     </row>
     <row r="47" spans="1:27" ht="15" customHeight="1">
       <c r="A47" s="23"/>
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="81"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="86">
+      <c r="C47" s="104"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="101">
         <f>IF(COUNTIF(E41:E46,"Error")&gt;0,"Error",IF(SUM(E41:E46)=0,"Completar",SUM(E41:E46)))</f>
         <v>0.1402777777777775</v>
       </c>
-      <c r="F47" s="87"/>
+      <c r="F47" s="102"/>
       <c r="G47" s="72"/>
       <c r="H47" s="73"/>
       <c r="I47" s="73"/>
@@ -31320,28 +31320,16 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="D1:N1"/>
-    <mergeCell ref="B15:N15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B32:E32"/>
@@ -31358,16 +31346,28 @@
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B15:N15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="D1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
